--- a/SportsInviter/Data/Input/Teams - Copy.xlsx
+++ b/SportsInviter/Data/Input/Teams - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262A89E8-B5C5-4E38-A90E-EBF1A4C77D39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5AD3A-C888-45C9-910A-95D7F72DCF72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Teamname</t>
   </si>
@@ -37,7 +37,7 @@
     <t>DCL_Summer</t>
   </si>
   <si>
-    <t>Sucess! Invite Sent</t>
+    <t>Sucess! Calendar Invite Sent</t>
   </si>
   <si>
     <t>Mustangs Blue</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Shadow Warriors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed! Calendar invite not sent </t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
